--- a/src/main/resources/static/XLSData/CountryList.xlsx
+++ b/src/main/resources/static/XLSData/CountryList.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525"/>
+    <workbookView windowWidth="20490" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="List of countries" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="337">
   <si>
     <t>Rank</t>
   </si>
@@ -1025,28 +1025,106 @@
   </si>
   <si>
     <t>February 1, 2013</t>
-  </si>
-  <si>
-    <t>For more other formats visit www.downloadexcelfiles.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1054,59 +1132,37 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="Cambria"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1114,7 +1170,14 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1122,60 +1185,8 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1187,175 +1198,188 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1368,10 +1392,68 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1386,11 +1468,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1433,206 +1539,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1915,4204 +1966,4199 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E248"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="A249" sqref="$A249:$XFD249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28571428571429" customWidth="1"/>
+    <col min="2" max="2" width="36.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="13.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="18.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="10.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" ht="15.75" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="1" t="s">
+    <row r="2" ht="15.75" spans="1:5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" ht="15.75" spans="1:5">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>7135000000</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A4" s="1">
+    <row r="4" ht="15.75" spans="1:5">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>1362010000</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>0.191</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A5" s="1">
+    <row r="5" ht="15.75" spans="1:5">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>1238570000</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4">
-        <v>0.17399999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A6" s="1">
+      <c r="E5" s="6">
+        <v>0.174</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:5">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>317400000</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4">
-        <v>4.4499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A7" s="1">
+      <c r="E6" s="6">
+        <v>0.0445</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:5">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>249866000</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A8" s="1">
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:5">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>201032714</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2.8199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A9" s="1">
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.0282</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:5">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>185256000</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="4">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A10" s="1">
+      <c r="E9" s="6">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:5">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>173615000</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2.4299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A11" s="1">
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.0243</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:5">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>152518015</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="4">
-        <v>2.1399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A12" s="1">
+      <c r="E11" s="6">
+        <v>0.0214</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="1:5">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>143600000</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="4">
-        <v>2.01E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A13" s="1">
+      <c r="E12" s="6">
+        <v>0.0201</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="1:5">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>127270000</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="4">
-        <v>1.78E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A14" s="1">
+      <c r="E13" s="6">
+        <v>0.0178</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" spans="1:5">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>118395054</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1.66E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A15" s="1">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.0166</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="1:5">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>98915000</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="4">
-        <v>1.3899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A16" s="1">
+      <c r="E15" s="6">
+        <v>0.0139</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="1:5">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <v>90388000</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="4">
-        <v>1.2699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A17" s="1">
+      <c r="E16" s="6">
+        <v>0.0127</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="1:5">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>86613986</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1.21E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A18" s="1">
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.0121</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" spans="1:5">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <v>83661000</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="4">
-        <v>1.17E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A19" s="1">
+      <c r="E18" s="6">
+        <v>0.0117</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="1:5">
+      <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <v>80586000</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="4">
-        <v>1.1299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A20" s="1">
+      <c r="E19" s="6">
+        <v>0.0113</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="1:5">
+      <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <v>77112000</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="4">
-        <v>1.0800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A21" s="1">
+      <c r="E20" s="6">
+        <v>0.0108</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="1:5">
+      <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <v>75627384</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="4">
-        <v>1.06E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A22" s="1">
+      <c r="E21" s="6">
+        <v>0.0106</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" spans="1:5">
+      <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>67514000</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="4">
-        <v>9.4999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A23" s="1">
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.0095</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" spans="1:5">
+      <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <v>65926261</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="4">
-        <v>9.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A24" s="1">
+      <c r="E23" s="6">
+        <v>0.0092</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" spans="1:5">
+      <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="4">
         <v>65834000</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="4">
-        <v>9.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A25" s="1">
+      <c r="E24" s="6">
+        <v>0.0092</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" spans="1:5">
+      <c r="A25" s="2">
         <v>22</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>63705000</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="4">
-        <v>8.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A26" s="1">
+      <c r="E25" s="6">
+        <v>0.0089</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" spans="1:5">
+      <c r="A26" s="2">
         <v>23</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="4">
         <v>59901141</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="4">
-        <v>8.3999999999999995E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A27" s="1">
+      <c r="E26" s="6">
+        <v>0.0084</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" spans="1:5">
+      <c r="A27" s="2">
         <v>24</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
         <v>53259000</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="4">
-        <v>7.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A28" s="1">
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.0075</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" spans="1:5">
+      <c r="A28" s="2">
         <v>25</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="4">
         <v>52981991</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="4">
-        <v>7.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A29" s="1">
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.0074</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" spans="1:5">
+      <c r="A29" s="2">
         <v>26</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="4">
         <v>50219669</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="4">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A30" s="1">
+      <c r="D29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" spans="1:5">
+      <c r="A30" s="2">
         <v>27</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="4">
         <v>47401000</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="4">
-        <v>6.6E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A31" s="1">
+      <c r="E30" s="6">
+        <v>0.0066</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" spans="1:5">
+      <c r="A31" s="2">
         <v>28</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="4">
         <v>46704314</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="4">
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A32" s="1">
+      <c r="E31" s="6">
+        <v>0.0065</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" spans="1:5">
+      <c r="A32" s="2">
         <v>29</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="4">
         <v>45447010</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="4">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A33" s="1">
+      <c r="E32" s="6">
+        <v>0.0064</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" spans="1:5">
+      <c r="A33" s="2">
         <v>30</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="4">
         <v>44928923</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="4">
-        <v>6.3E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A34" s="1">
+      <c r="E33" s="6">
+        <v>0.0063</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" spans="1:5">
+      <c r="A34" s="2">
         <v>31</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="4">
         <v>44354000</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="4">
-        <v>6.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A35" s="1">
+      <c r="D34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.0062</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" spans="1:5">
+      <c r="A35" s="2">
         <v>32</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="4">
         <v>40117096</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="4">
-        <v>5.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A36" s="1">
+      <c r="E35" s="6">
+        <v>0.0056</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" spans="1:5">
+      <c r="A36" s="2">
         <v>33</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="4">
         <v>38700000</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="4">
-        <v>5.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A37" s="1">
+      <c r="E36" s="6">
+        <v>0.0054</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" spans="1:5">
+      <c r="A37" s="2">
         <v>34</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="4">
         <v>38502396</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="4">
-        <v>3.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A38" s="1">
+      <c r="E37" s="6">
+        <v>0.0037</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" spans="1:5">
+      <c r="A38" s="2">
         <v>35</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="4">
         <v>37964000</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="4">
-        <v>5.3E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A39" s="1">
+      <c r="D38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0.0053</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" spans="1:5">
+      <c r="A39" s="2">
         <v>36</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="4">
         <v>35357000</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A40" s="1">
+      <c r="D39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" spans="1:5">
+      <c r="A40" s="2">
         <v>37</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="4">
         <v>35295770</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="4">
-        <v>4.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A41" s="1">
+      <c r="E40" s="6">
+        <v>0.0049</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" spans="1:5">
+      <c r="A41" s="2">
         <v>38</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="4">
         <v>34035000</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="4">
-        <v>4.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A42" s="1">
+      <c r="E41" s="6">
+        <v>0.0048</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" spans="1:5">
+      <c r="A42" s="2">
         <v>39</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="4">
         <v>33132100</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="4">
-        <v>4.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A43" s="1">
+      <c r="E42" s="6">
+        <v>0.0046</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" spans="1:5">
+      <c r="A43" s="2">
         <v>40</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="4">
         <v>30475144</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="4">
-        <v>4.3E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A44" s="1">
+      <c r="E43" s="6">
+        <v>0.0043</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" spans="1:5">
+      <c r="A44" s="2">
         <v>41</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="4">
         <v>30183400</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="4">
-        <v>4.1999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A45" s="1">
+      <c r="D44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0.0042</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" spans="1:5">
+      <c r="A45" s="2">
         <v>42</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="4">
         <v>29994272</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="4">
-        <v>4.1999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A46" s="1">
+      <c r="D45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0.0042</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" spans="1:5">
+      <c r="A46" s="2">
         <v>43</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="4">
         <v>29950000</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="4">
-        <v>4.1999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A47" s="1">
+      <c r="E46" s="6">
+        <v>0.0042</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" spans="1:5">
+      <c r="A47" s="2">
         <v>44</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="4">
         <v>28946101</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="4">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A48" s="1">
+      <c r="E47" s="6">
+        <v>0.0041</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" spans="1:5">
+      <c r="A48" s="2">
         <v>45</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="4">
         <v>26494504</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="4">
-        <v>3.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A49" s="1">
+      <c r="E48" s="6">
+        <v>0.0037</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" spans="1:5">
+      <c r="A49" s="2">
         <v>46</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="4">
         <v>25500100</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="4">
-        <v>3.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A50" s="1">
+      <c r="E49" s="6">
+        <v>0.0036</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" spans="1:5">
+      <c r="A50" s="2">
         <v>47</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="4">
         <v>25235000</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="4">
-        <v>3.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A51" s="1">
+      <c r="D50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0.0035</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" spans="1:5">
+      <c r="A51" s="2">
         <v>48</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="4">
         <v>24895000</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="4">
-        <v>3.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A52" s="1">
+      <c r="D51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0.0035</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" spans="1:5">
+      <c r="A52" s="2">
         <v>49</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="4">
         <v>24658823</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E52" s="4">
-        <v>3.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A53" s="1">
+      <c r="E52" s="6">
+        <v>0.0035</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" spans="1:5">
+      <c r="A53" s="2">
         <v>50</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="4">
         <v>23700715</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="4">
-        <v>3.3E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A54" s="1">
+      <c r="E53" s="6">
+        <v>0.0033</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" spans="1:5">
+      <c r="A54" s="2">
         <v>51</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="4">
         <v>23367320</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E54" s="4">
-        <v>3.3E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A55" s="1">
+      <c r="E54" s="6">
+        <v>0.0033</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" spans="1:5">
+      <c r="A55" s="2">
         <v>52</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="4">
         <v>23335808</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="4">
-        <v>3.3E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A56" s="1">
+      <c r="E55" s="6">
+        <v>0.0033</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" spans="1:5">
+      <c r="A56" s="2">
         <v>53</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="4">
         <v>23202000</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E56" s="4">
-        <v>3.3E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A57" s="1">
+      <c r="E56" s="6">
+        <v>0.0033</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" spans="1:5">
+      <c r="A57" s="2">
         <v>54</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="4">
         <v>21898000</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="4">
-        <v>3.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A58" s="1">
+      <c r="D57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0.0031</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" spans="1:5">
+      <c r="A58" s="2">
         <v>55</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="4">
         <v>21263403</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E58" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A59" s="1">
+      <c r="E58" s="6">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" spans="1:5">
+      <c r="A59" s="2">
         <v>56</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="4">
         <v>20609294</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E59" s="4">
-        <v>2.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A60" s="1">
+      <c r="E59" s="6">
+        <v>0.0029</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" spans="1:5">
+      <c r="A60" s="2">
         <v>57</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="4">
         <v>20386799</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E60" s="4">
-        <v>2.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A61" s="1">
+      <c r="E60" s="6">
+        <v>0.0029</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" spans="1:5">
+      <c r="A61" s="2">
         <v>58</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="4">
         <v>20277597</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E61" s="4">
-        <v>2.8E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A62" s="1">
+      <c r="E61" s="6">
+        <v>0.0028</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" spans="1:5">
+      <c r="A62" s="2">
         <v>59</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="4">
         <v>20121641</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E62" s="4">
-        <v>2.8E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A63" s="1">
+      <c r="E62" s="6">
+        <v>0.0028</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" spans="1:5">
+      <c r="A63" s="2">
         <v>60</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="4">
         <v>17322796</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="4">
-        <v>2.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A64" s="1">
+      <c r="D63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="6">
+        <v>0.0024</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" spans="1:5">
+      <c r="A64" s="2">
         <v>61</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="4">
         <v>17129076</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E64" s="4">
-        <v>2.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A65" s="1">
+      <c r="E64" s="6">
+        <v>0.0024</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" spans="1:5">
+      <c r="A65" s="2">
         <v>62</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="4">
         <v>17099000</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E65" s="4">
-        <v>2.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A66" s="1">
+      <c r="E65" s="6">
+        <v>0.0024</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" spans="1:5">
+      <c r="A66" s="2">
         <v>63</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="4">
         <v>16832700</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="4">
-        <v>2.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A67" s="1">
+      <c r="E66" s="6">
+        <v>0.0024</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" spans="1:5">
+      <c r="A67" s="2">
         <v>64</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="4">
         <v>16634603</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E67" s="4">
-        <v>2.3E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A68" s="1">
+      <c r="E67" s="6">
+        <v>0.0023</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" spans="1:5">
+      <c r="A68" s="2">
         <v>65</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="4">
         <v>16363000</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="4">
-        <v>2.3E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A69" s="1">
+      <c r="D68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0.0023</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" spans="1:5">
+      <c r="A69" s="2">
         <v>66</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="4">
         <v>15649100</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="4">
-        <v>2.2000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A70" s="1">
+      <c r="E69" s="6">
+        <v>0.0022</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" spans="1:5">
+      <c r="A70" s="2">
         <v>67</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="4">
         <v>15438384</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E70" s="4">
-        <v>2.2000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A71" s="1">
+      <c r="E70" s="6">
+        <v>0.0022</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" spans="1:5">
+      <c r="A71" s="2">
         <v>68</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="4">
         <v>15302000</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="4">
-        <v>2.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A72" s="1">
+      <c r="D71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0.0021</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" spans="1:5">
+      <c r="A72" s="2">
         <v>69</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="4">
         <v>15135000</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="4">
-        <v>2.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A73" s="1">
+      <c r="D72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="6">
+        <v>0.0021</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" spans="1:5">
+      <c r="A73" s="2">
         <v>70</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="4">
         <v>13567338</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="4">
-        <v>1.9E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A74" s="1">
+      <c r="D73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0.0019</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" spans="1:5">
+      <c r="A74" s="2">
         <v>71</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="4">
         <v>13092666</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E74" s="4">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A75" s="1">
+      <c r="E74" s="6">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" spans="1:5">
+      <c r="A75" s="2">
         <v>72</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="4">
         <v>12973808</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E75" s="4">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A76" s="1">
+      <c r="E75" s="6">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" spans="1:5">
+      <c r="A76" s="2">
         <v>73</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="4">
         <v>12825000</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" s="4">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A77" s="1">
+      <c r="D76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" spans="1:5">
+      <c r="A77" s="2">
         <v>74</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="4">
         <v>11296000</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="4">
-        <v>1.6000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A78" s="1">
+      <c r="D77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="6">
+        <v>0.0016</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" spans="1:5">
+      <c r="A78" s="2">
         <v>75</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="4">
         <v>11180320</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E78" s="4">
-        <v>1.6000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A79" s="1">
+      <c r="E78" s="6">
+        <v>0.0016</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" spans="1:5">
+      <c r="A79" s="2">
         <v>76</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="4">
         <v>11167325</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E79" s="4">
-        <v>1.6000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A80" s="1">
+      <c r="E79" s="6">
+        <v>0.0016</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" spans="1:5">
+      <c r="A80" s="2">
         <v>77</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="4">
         <v>10833431</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E80" s="4">
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A81" s="1">
+      <c r="E80" s="6">
+        <v>0.0015</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" spans="1:5">
+      <c r="A81" s="2">
         <v>78</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="4">
         <v>10824200</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E81" s="4">
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A82" s="1">
+      <c r="E81" s="6">
+        <v>0.0015</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" spans="1:5">
+      <c r="A82" s="2">
         <v>79</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="4">
         <v>10815197</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E82" s="4">
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A83" s="1">
+      <c r="E82" s="6">
+        <v>0.0015</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" spans="1:5">
+      <c r="A83" s="2">
         <v>80</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="4">
         <v>10487289</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E83" s="4">
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A84" s="1">
+      <c r="E83" s="6">
+        <v>0.0015</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" spans="1:5">
+      <c r="A84" s="2">
         <v>81</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="4">
         <v>10537222</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E84" s="4">
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A85" s="1">
+      <c r="E84" s="6">
+        <v>0.0015</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" spans="1:5">
+      <c r="A85" s="2">
         <v>82</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="4">
         <v>10513800</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E85" s="4">
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A86" s="1">
+      <c r="E85" s="6">
+        <v>0.0015</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" spans="1:5">
+      <c r="A86" s="2">
         <v>83</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="4">
         <v>10496000</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" s="4">
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A87" s="1">
+      <c r="D86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="6">
+        <v>0.0015</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" spans="1:5">
+      <c r="A87" s="2">
         <v>84</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="4">
         <v>10413211</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E87" s="4">
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A88" s="1">
+      <c r="E87" s="6">
+        <v>0.0015</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" spans="1:5">
+      <c r="A88" s="2">
         <v>85</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="4">
         <v>10323000</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" s="4">
-        <v>1.4E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A89" s="1">
+      <c r="D88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="6">
+        <v>0.0014</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" spans="1:5">
+      <c r="A89" s="2">
         <v>86</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="4">
         <v>10163000</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" s="4">
-        <v>1.4E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A90" s="1">
+      <c r="D89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="6">
+        <v>0.0014</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" spans="1:5">
+      <c r="A90" s="2">
         <v>87</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="4">
         <v>10027254</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E90" s="4">
-        <v>1.4E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A91" s="1">
+      <c r="E90" s="6">
+        <v>0.0014</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" spans="1:5">
+      <c r="A91" s="2">
         <v>88</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="4">
         <v>9906000</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E91" s="4">
-        <v>1.4E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A92" s="1">
+      <c r="E91" s="6">
+        <v>0.0014</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" spans="1:5">
+      <c r="A92" s="2">
         <v>89</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="4">
         <v>9633490</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E92" s="4">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A93" s="1">
+      <c r="E92" s="6">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" spans="1:5">
+      <c r="A93" s="2">
         <v>90</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="4">
         <v>9467200</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E93" s="4">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A94" s="1">
+      <c r="E93" s="6">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" spans="1:5">
+      <c r="A94" s="2">
         <v>91</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="4">
         <v>9445281</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E94" s="4">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A95" s="1">
+      <c r="E94" s="6">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" spans="1:5">
+      <c r="A95" s="2">
         <v>92</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="4">
         <v>9235100</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E95" s="4">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A96" s="1">
+      <c r="E95" s="6">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" spans="1:5">
+      <c r="A96" s="2">
         <v>93</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="4">
         <v>8555072</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96" s="4">
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A97" s="1">
+      <c r="D96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="6">
+        <v>0.0012</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" spans="1:5">
+      <c r="A97" s="2">
         <v>94</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="4">
         <v>8501502</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E97" s="4">
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A98" s="1">
+      <c r="E97" s="6">
+        <v>0.0012</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" spans="1:5">
+      <c r="A98" s="2">
         <v>95</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="4">
         <v>8264070</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E98" s="4">
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A99" s="1">
+      <c r="E98" s="6">
+        <v>0.0012</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" spans="1:5">
+      <c r="A99" s="2">
         <v>96</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="4">
         <v>8132000</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E99" s="4">
-        <v>1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A100" s="1">
+      <c r="E99" s="6">
+        <v>0.0011</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" spans="1:5">
+      <c r="A100" s="2">
         <v>97</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="4">
         <v>8112200</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E100" s="4">
-        <v>1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A101" s="1">
+      <c r="E100" s="6">
+        <v>0.0011</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" spans="1:5">
+      <c r="A101" s="2">
         <v>98</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="4">
         <v>8000000</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E101" s="4">
-        <v>1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A102" s="1">
+      <c r="E101" s="6">
+        <v>0.0011</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" spans="1:5">
+      <c r="A102" s="2">
         <v>99</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="4">
         <v>7282041</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E102" s="4">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A103" s="1">
+      <c r="E102" s="6">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" spans="1:5">
+      <c r="A103" s="2">
         <v>100</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="4">
         <v>7184000</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" s="4">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A104" s="1">
+      <c r="D103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="6">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" spans="1:5">
+      <c r="A104" s="2">
         <v>101</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="4">
         <v>7181505</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E104" s="4">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A105" s="1">
+      <c r="E104" s="6">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" spans="1:5">
+      <c r="A105" s="2">
         <v>102</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="4">
         <v>7059653</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E105" s="4">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A106" s="1">
+      <c r="E105" s="6">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" spans="1:5">
+      <c r="A106" s="2">
         <v>103</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="4">
         <v>6783374</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="2">
         <v>2013</v>
       </c>
-      <c r="E106" s="4">
-        <v>8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A107" s="1">
+      <c r="E106" s="6">
+        <v>0.0009</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" spans="1:5">
+      <c r="A107" s="2">
         <v>104</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="4">
         <v>6580800</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" s="4">
-        <v>8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A108" s="1">
+      <c r="D107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="6">
+        <v>0.0009</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" spans="1:5">
+      <c r="A108" s="2">
         <v>105</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="4">
         <v>6531200</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E108" s="4">
-        <v>8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A109" s="1">
+      <c r="E108" s="6">
+        <v>0.0009</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" spans="1:5">
+      <c r="A109" s="2">
         <v>106</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="4">
         <v>6340000</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" s="4">
-        <v>8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A110" s="1">
+      <c r="D109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="6">
+        <v>0.0009</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" spans="1:5">
+      <c r="A110" s="2">
         <v>107</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="4">
         <v>6333000</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="4">
-        <v>8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A111" s="1">
+      <c r="D110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="6">
+        <v>0.0009</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" spans="1:5">
+      <c r="A111" s="2">
         <v>108</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="4">
         <v>6202000</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" s="4">
-        <v>8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A112" s="1">
+      <c r="D111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="6">
+        <v>0.0009</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" spans="1:5">
+      <c r="A112" s="2">
         <v>109</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="4">
         <v>6191155</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E112" s="4">
-        <v>8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A113" s="1">
+      <c r="E112" s="6">
+        <v>0.0009</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" spans="1:5">
+      <c r="A113" s="2">
         <v>110</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="4">
         <v>6190280</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="2">
         <v>2013</v>
       </c>
-      <c r="E113" s="4">
-        <v>8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A114" s="1">
+      <c r="E113" s="6">
+        <v>0.0009</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" spans="1:5">
+      <c r="A114" s="2">
         <v>111</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="4">
         <v>6071045</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E114" s="4">
-        <v>8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A115" s="1">
+      <c r="E114" s="6">
+        <v>0.0009</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" spans="1:5">
+      <c r="A115" s="2">
         <v>112</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="4">
         <v>5747000</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E115" s="4">
-        <v>8.0000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A116" s="1">
+      <c r="E115" s="6">
+        <v>0.0008</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" spans="1:5">
+      <c r="A116" s="2">
         <v>113</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="4">
         <v>5623501</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E116" s="4">
-        <v>8.0000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A117" s="1">
+      <c r="E116" s="6">
+        <v>0.0008</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" spans="1:5">
+      <c r="A117" s="2">
         <v>114</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="4">
         <v>5449657</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E117" s="4">
-        <v>8.0000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A118" s="1">
+      <c r="E117" s="6">
+        <v>0.0008</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" spans="1:5">
+      <c r="A118" s="2">
         <v>115</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="4">
         <v>5412008</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E118" s="4">
-        <v>8.0000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A119" s="1">
+      <c r="E118" s="6">
+        <v>0.0008</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" spans="1:5">
+      <c r="A119" s="2">
         <v>116</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119" s="4">
         <v>5399200</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119" s="4">
-        <v>8.0000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A120" s="1">
+      <c r="D119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="6">
+        <v>0.0008</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" spans="1:5">
+      <c r="A120" s="2">
         <v>117</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="4">
         <v>5240000</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E120" s="4">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A121" s="1">
+      <c r="D120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="6">
+        <v>0.0007</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" spans="1:5">
+      <c r="A121" s="2">
         <v>118</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="4">
         <v>5096300</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E121" s="4">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A122" s="1">
+      <c r="E121" s="6">
+        <v>0.0007</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" spans="1:5">
+      <c r="A122" s="2">
         <v>119</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="4">
         <v>4822000</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122" s="4">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A123" s="1">
+      <c r="D122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="6">
+        <v>0.0007</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" spans="1:5">
+      <c r="A123" s="2">
         <v>120</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="4">
         <v>4667096</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" s="4">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A124" s="1">
+      <c r="D123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" s="6">
+        <v>0.0007</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" spans="1:5">
+      <c r="A124" s="2">
         <v>121</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="4">
         <v>4616000</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E124" s="4">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A125" s="1">
+      <c r="D124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" s="6">
+        <v>0.0007</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" spans="1:5">
+      <c r="A125" s="2">
         <v>122</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="4">
         <v>4593100</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E125" s="4">
-        <v>5.9999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A126" s="1">
+      <c r="E125" s="6">
+        <v>0.0006</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" spans="1:5">
+      <c r="A126" s="2">
         <v>123</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="4">
         <v>4483800</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E126" s="4">
-        <v>5.9999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A127" s="1">
+      <c r="E126" s="6">
+        <v>0.0006</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" spans="1:5">
+      <c r="A127" s="2">
         <v>124</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="4">
         <v>4504860</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E127" s="4">
-        <v>5.9999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A128" s="1">
+      <c r="E127" s="6">
+        <v>0.0006</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" spans="1:5">
+      <c r="A128" s="2">
         <v>125</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="4">
         <v>4448000</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E128" s="4">
-        <v>5.9999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A129" s="1">
+      <c r="D128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" s="6">
+        <v>0.0006</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" spans="1:5">
+      <c r="A129" s="2">
         <v>126</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="4">
         <v>4420549</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E129" s="4">
-        <v>5.9999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A130" s="1">
+      <c r="D129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" s="6">
+        <v>0.0006</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" spans="1:5">
+      <c r="A130" s="2">
         <v>127</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130" s="4">
         <v>4294000</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E130" s="4">
-        <v>5.9999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A131" s="1">
+      <c r="D130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" s="6">
+        <v>0.0006</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" spans="1:5">
+      <c r="A131" s="2">
         <v>128</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="4">
         <v>4290612</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E131" s="4">
-        <v>5.9999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A132" s="1">
+      <c r="E131" s="6">
+        <v>0.0006</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" spans="1:5">
+      <c r="A132" s="2">
         <v>129</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="4">
         <v>3929000</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E132" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A133" s="1">
+      <c r="E132" s="6">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" spans="1:5">
+      <c r="A133" s="2">
         <v>130</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="4">
         <v>3791622</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E133" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A134" s="1">
+      <c r="E133" s="6">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" spans="1:5">
+      <c r="A134" s="2">
         <v>131</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="4">
         <v>3615086</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E134" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A135" s="1">
+      <c r="D134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" s="6">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" spans="1:5">
+      <c r="A135" s="2">
         <v>132</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="4">
         <v>3582054</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E135" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A136" s="1">
+      <c r="E135" s="6">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" spans="1:5">
+      <c r="A136" s="2">
         <v>133</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="4">
         <v>3559500</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E136" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A137" s="1">
+      <c r="E136" s="6">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" spans="1:5">
+      <c r="A137" s="2">
         <v>134</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="4">
         <v>3461041</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E137" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A138" s="1">
+      <c r="D137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" s="6">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" spans="1:5">
+      <c r="A138" s="2">
         <v>135</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="4">
         <v>3405813</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E138" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A139" s="1">
+      <c r="E138" s="6">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" spans="1:5">
+      <c r="A139" s="2">
         <v>136</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139" s="4">
         <v>3286314</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E139" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A140" s="1">
+      <c r="E139" s="6">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" spans="1:5">
+      <c r="A140" s="2">
         <v>137</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="4">
         <v>3024100</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E140" s="4">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A141" s="1">
+      <c r="E140" s="6">
+        <v>0.0004</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" spans="1:5">
+      <c r="A141" s="2">
         <v>138</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141" s="4">
         <v>2945951</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E141" s="4">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A142" s="1">
+      <c r="E141" s="6">
+        <v>0.0004</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" spans="1:5">
+      <c r="A142" s="2">
         <v>139</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142" s="4">
         <v>2821977</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E142" s="4">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A143" s="1">
+      <c r="E142" s="6">
+        <v>0.0004</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" spans="1:5">
+      <c r="A143" s="2">
         <v>140</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143" s="4">
         <v>2754685</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E143" s="4">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A144" s="1">
+      <c r="E143" s="6">
+        <v>0.0004</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" spans="1:5">
+      <c r="A144" s="2">
         <v>141</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144" s="4">
         <v>2711476</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E144" s="4">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A145" s="1">
+      <c r="E144" s="6">
+        <v>0.0004</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" spans="1:5">
+      <c r="A145" s="2">
         <v>142</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145" s="4">
         <v>2113077</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E145" s="4">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A146" s="1">
+      <c r="E145" s="6">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="146" ht="15.75" spans="1:5">
+      <c r="A146" s="2">
         <v>143</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146" s="4">
         <v>2074000</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E146" s="4">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A147" s="1">
+      <c r="D146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" s="6">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" spans="1:5">
+      <c r="A147" s="2">
         <v>144</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147" s="4">
         <v>2068050</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E147" s="4">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A148" s="1">
+      <c r="E147" s="6">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" spans="1:5">
+      <c r="A148" s="2">
         <v>145</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148" s="4">
         <v>2062294</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E148" s="4">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A149" s="1">
+      <c r="E148" s="6">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" spans="1:5">
+      <c r="A149" s="2">
         <v>146</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="4">
         <v>2061171</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E149" s="4">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A150" s="1">
+      <c r="E149" s="6">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="150" ht="15.75" spans="1:5">
+      <c r="A150" s="2">
         <v>147</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150" s="4">
         <v>2024904</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E150" s="4">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A151" s="1">
+      <c r="E150" s="6">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" spans="1:5">
+      <c r="A151" s="2">
         <v>148</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151" s="4">
         <v>2008700</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E151" s="4">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A152" s="1">
+      <c r="E151" s="6">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" spans="1:5">
+      <c r="A152" s="2">
         <v>149</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152" s="4">
         <v>1849000</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E152" s="4">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A153" s="1">
+      <c r="D152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" s="6">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" spans="1:5">
+      <c r="A153" s="2">
         <v>150</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153" s="4">
         <v>1815606</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E153" s="4">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A154" s="1">
+      <c r="E153" s="6">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" spans="1:5">
+      <c r="A154" s="2">
         <v>151</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154" s="4">
         <v>1704000</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E154" s="4">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A155" s="1">
+      <c r="D154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154" s="6">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="155" ht="15.75" spans="1:5">
+      <c r="A155" s="2">
         <v>152</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155" s="4">
         <v>1672000</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E155" s="4">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A156" s="1">
+      <c r="D155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" s="6">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" spans="1:5">
+      <c r="A156" s="2">
         <v>153</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156" s="4">
         <v>1622000</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E156" s="4">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A157" s="1">
+      <c r="E156" s="6">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" spans="1:5">
+      <c r="A157" s="2">
         <v>154</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157" s="4">
         <v>1328019</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E157" s="4">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A158" s="1">
+      <c r="E157" s="6">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" spans="1:5">
+      <c r="A158" s="2">
         <v>155</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158" s="4">
         <v>1286540</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E158" s="4">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A159" s="1">
+      <c r="E158" s="6">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" spans="1:5">
+      <c r="A159" s="2">
         <v>156</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159" s="4">
         <v>1257900</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E159" s="4">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A160" s="1">
+      <c r="E159" s="6">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" spans="1:5">
+      <c r="A160" s="2">
         <v>157</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160" s="4">
         <v>1250000</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E160" s="4">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A161" s="1">
+      <c r="D160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" s="6">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="161" ht="15.75" spans="1:5">
+      <c r="A161" s="2">
         <v>158</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161" s="4">
         <v>1234571</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E161" s="4">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A162" s="1">
+      <c r="E161" s="6">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="162" ht="15.75" spans="1:5">
+      <c r="A162" s="2">
         <v>159</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162" s="4">
         <v>1066409</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E162" s="4">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A163" s="1">
+      <c r="E162" s="6">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" spans="1:5">
+      <c r="A163" s="2">
         <v>160</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163" s="4">
         <v>873000</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E163" s="4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A164" s="1">
+      <c r="D163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163" s="6">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="164" ht="15.75" spans="1:5">
+      <c r="A164" s="2">
         <v>161</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164" s="4">
         <v>865878</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E164" s="4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A165" s="1">
+      <c r="E164" s="6">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="165" ht="15.75" spans="1:5">
+      <c r="A165" s="2">
         <v>162</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165" s="4">
         <v>858038</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E165" s="4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A166" s="1">
+      <c r="E165" s="6">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" spans="1:5">
+      <c r="A166" s="2">
         <v>163</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C166" s="4">
         <v>821136</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D166" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E166" s="4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A167" s="1">
+      <c r="E166" s="6">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="167" ht="15.75" spans="1:5">
+      <c r="A167" s="2">
         <v>164</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167" s="4">
         <v>784894</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E167" s="4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A168" s="1">
+      <c r="E167" s="6">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="168" ht="15.75" spans="1:5">
+      <c r="A168" s="2">
         <v>165</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C168" s="4">
         <v>743797</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E168" s="4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A169" s="1">
+      <c r="D168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" s="6">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" spans="1:5">
+      <c r="A169" s="2">
         <v>166</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C169" s="4">
         <v>742610</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E169" s="4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A170" s="1">
+      <c r="E169" s="6">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="170" ht="15.75" spans="1:5">
+      <c r="A170" s="2">
         <v>167</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170" s="4">
         <v>620029</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E170" s="4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A171" s="1">
+      <c r="E170" s="6">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="171" ht="15.75" spans="1:5">
+      <c r="A171" s="2">
         <v>168</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171" s="4">
         <v>598200</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E171" s="4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A172" s="1">
+      <c r="E171" s="6">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" spans="1:5">
+      <c r="A172" s="2">
         <v>169</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172" s="4">
         <v>581344</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E172" s="4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A173" s="1">
+      <c r="D172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172" s="6">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="173" ht="15.75" spans="1:5">
+      <c r="A173" s="2">
         <v>170</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B173" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173" s="4">
         <v>567000</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E173" s="4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A174" s="1">
+      <c r="D173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173" s="6">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="174" ht="15.75" spans="1:5">
+      <c r="A174" s="2">
         <v>171</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B174" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C174" s="4">
         <v>537000</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D174" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E174" s="4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A175" s="1">
+      <c r="E174" s="6">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="175" ht="15.75" spans="1:5">
+      <c r="A175" s="2">
         <v>172</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C175" s="2">
+      <c r="C175" s="4">
         <v>534189</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D175" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E175" s="4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A176" s="1">
+      <c r="E175" s="6">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="176" ht="15.75" spans="1:5">
+      <c r="A176" s="2">
         <v>173</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C176" s="4">
         <v>491875</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D176" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E176" s="4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A177" s="1">
+      <c r="E176" s="6">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" spans="1:5">
+      <c r="A177" s="2">
         <v>174</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C177" s="2">
+      <c r="C177" s="4">
         <v>416055</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D177" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E177" s="4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A178" s="1">
+      <c r="E177" s="6">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" spans="1:5">
+      <c r="A178" s="2">
         <v>175</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C178" s="2">
+      <c r="C178" s="4">
         <v>403355</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D178" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E178" s="4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A179" s="1">
+      <c r="E178" s="6">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="179" ht="15.75" spans="1:5">
+      <c r="A179" s="2">
         <v>176</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C179" s="2">
+      <c r="C179" s="4">
         <v>394173</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D179" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E179" s="4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A180" s="1">
+      <c r="E179" s="6">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="180" ht="15.75" spans="1:5">
+      <c r="A180" s="2">
         <v>177</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C180" s="2">
+      <c r="C180" s="4">
         <v>393162</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D180" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E180" s="4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A181" s="1">
+      <c r="E180" s="6">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="181" ht="15.75" spans="1:5">
+      <c r="A181" s="2">
         <v>178</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C181" s="2">
+      <c r="C181" s="4">
         <v>351461</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D181" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E181" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A182" s="1">
+      <c r="E181" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" ht="15.75" spans="1:5">
+      <c r="A182" s="2">
         <v>179</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C182" s="4">
         <v>325010</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D182" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E182" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A183" s="1">
+      <c r="E182" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" ht="15.75" spans="1:5">
+      <c r="A183" s="2">
         <v>180</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C183" s="2">
+      <c r="C183" s="4">
         <v>317280</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D183" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E183" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A184" s="1">
+      <c r="E183" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" ht="15.75" spans="1:5">
+      <c r="A184" s="2">
         <v>181</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C184" s="2">
+      <c r="C184" s="4">
         <v>312971</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D184" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E184" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A185" s="1">
+      <c r="E184" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" ht="15.75" spans="1:5">
+      <c r="A185" s="2">
         <v>182</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C185" s="4">
         <v>274200</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D185" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E185" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A186" s="1">
+      <c r="E185" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" ht="15.75" spans="1:5">
+      <c r="A186" s="2">
         <v>183</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C186" s="4">
         <v>268270</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D186" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E186" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A187" s="1">
+      <c r="E186" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" ht="15.75" spans="1:5">
+      <c r="A187" s="2">
         <v>184</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C187" s="4">
         <v>264652</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E187" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A188" s="1">
+      <c r="D187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" ht="15.75" spans="1:5">
+      <c r="A188" s="2">
         <v>185</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C188" s="2">
+      <c r="C188" s="4">
         <v>258958</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E188" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A189" s="1">
+      <c r="D188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" ht="15.75" spans="1:5">
+      <c r="A189" s="2">
         <v>186</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C189" s="2">
+      <c r="C189" s="4">
         <v>229040</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D189" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E189" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A190" s="1">
+      <c r="E189" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" ht="15.75" spans="1:5">
+      <c r="A190" s="2">
         <v>187</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C190" s="2">
+      <c r="C190" s="4">
         <v>212600</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D190" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E190" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A191" s="1">
+      <c r="E190" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" ht="15.75" spans="1:5">
+      <c r="A191" s="2">
         <v>188</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C191" s="2">
+      <c r="C191" s="4">
         <v>187820</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D191" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E191" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A192" s="1">
+      <c r="E191" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" ht="15.75" spans="1:5">
+      <c r="A192" s="2">
         <v>189</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B192" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C192" s="4">
         <v>187356</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D192" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E192" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A193" s="1">
+      <c r="E192" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" ht="15.75" spans="1:5">
+      <c r="A193" s="2">
         <v>190</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C193" s="2">
+      <c r="C193" s="4">
         <v>166526</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D193" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E193" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A194" s="1">
+      <c r="E193" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" ht="15.75" spans="1:5">
+      <c r="A194" s="2">
         <v>191</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C194" s="2">
+      <c r="C194" s="4">
         <v>159358</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D194" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E194" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A195" s="1">
+      <c r="E194" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" ht="15.75" spans="1:5">
+      <c r="A195" s="2">
         <v>192</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B195" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C195" s="2">
+      <c r="C195" s="4">
         <v>150563</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D195" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E195" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A196" s="1">
+      <c r="E195" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" ht="15.75" spans="1:5">
+      <c r="A196" s="2">
         <v>193</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C196" s="2">
+      <c r="C196" s="4">
         <v>109000</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E196" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A197" s="1">
+      <c r="D196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" ht="15.75" spans="1:5">
+      <c r="A197" s="2">
         <v>194</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C197" s="2">
+      <c r="C197" s="4">
         <v>106461</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E197" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A198" s="1">
+      <c r="D197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" ht="15.75" spans="1:5">
+      <c r="A198" s="2">
         <v>195</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C198" s="2">
+      <c r="C198" s="4">
         <v>106405</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="D198" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E198" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A199" s="1">
+      <c r="E198" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" ht="15.75" spans="1:5">
+      <c r="A199" s="2">
         <v>196</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C199" s="2">
+      <c r="C199" s="4">
         <v>103328</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D199" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E199" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A200" s="1">
+      <c r="E199" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" ht="15.75" spans="1:5">
+      <c r="A200" s="2">
         <v>197</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C200" s="2">
+      <c r="C200" s="4">
         <v>103036</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D200" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E200" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A201" s="1">
+      <c r="E200" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" ht="15.75" spans="1:5">
+      <c r="A201" s="2">
         <v>198</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C201" s="2">
+      <c r="C201" s="4">
         <v>101484</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D201" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E201" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A202" s="1">
+      <c r="E201" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" ht="15.75" spans="1:5">
+      <c r="A202" s="2">
         <v>199</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B202" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C202" s="4">
         <v>101351</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E202" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A203" s="1">
+      <c r="D202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E202" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" ht="15.75" spans="1:5">
+      <c r="A203" s="2">
         <v>200</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B203" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C203" s="2">
+      <c r="C203" s="4">
         <v>97857</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D203" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E203" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A204" s="1">
+      <c r="E203" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" ht="15.75" spans="1:5">
+      <c r="A204" s="2">
         <v>201</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B204" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C204" s="4">
         <v>90945</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="D204" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E204" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A205" s="1">
+      <c r="E204" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" ht="15.75" spans="1:5">
+      <c r="A205" s="2">
         <v>202</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B205" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C205" s="2">
+      <c r="C205" s="4">
         <v>86295</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D205" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E205" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A206" s="1">
+      <c r="E205" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" ht="15.75" spans="1:5">
+      <c r="A206" s="2">
         <v>203</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C206" s="2">
+      <c r="C206" s="4">
         <v>84497</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D206" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E206" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A207" s="1">
+      <c r="E206" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" ht="15.75" spans="1:5">
+      <c r="A207" s="2">
         <v>204</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B207" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C207" s="2">
+      <c r="C207" s="4">
         <v>76246</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D207" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E207" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A208" s="1">
+      <c r="E207" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" ht="15.75" spans="1:5">
+      <c r="A208" s="2">
         <v>205</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B208" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C208" s="2">
+      <c r="C208" s="4">
         <v>71293</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D208" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E208" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A209" s="1">
+      <c r="E208" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" ht="15.75" spans="1:5">
+      <c r="A209" s="2">
         <v>206</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B209" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C209" s="2">
+      <c r="C209" s="4">
         <v>64237</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="D209" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E209" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A210" s="1">
+      <c r="E209" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" ht="15.75" spans="1:5">
+      <c r="A210" s="2">
         <v>207</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B210" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C210" s="2">
+      <c r="C210" s="4">
         <v>63085</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D210" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E210" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A211" s="1">
+      <c r="E210" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" ht="15.75" spans="1:5">
+      <c r="A211" s="2">
         <v>208</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C211" s="2">
+      <c r="C211" s="4">
         <v>56370</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D211" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E211" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A212" s="1">
+      <c r="E211" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" ht="15.75" spans="1:5">
+      <c r="A212" s="2">
         <v>209</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B212" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C212" s="2">
+      <c r="C212" s="4">
         <v>56086</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E212" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A213" s="1">
+      <c r="D212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E212" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" ht="15.75" spans="1:5">
+      <c r="A213" s="2">
         <v>210</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B213" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C213" s="2">
+      <c r="C213" s="4">
         <v>55519</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="D213" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E213" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A214" s="1">
+      <c r="E213" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" ht="15.75" spans="1:5">
+      <c r="A214" s="2">
         <v>211</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B214" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C214" s="2">
+      <c r="C214" s="4">
         <v>55456</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="D214" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E214" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A215" s="1">
+      <c r="E214" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" ht="15.75" spans="1:5">
+      <c r="A215" s="2">
         <v>212</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C215" s="2">
+      <c r="C215" s="4">
         <v>54000</v>
       </c>
-      <c r="D215" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E215" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A216" s="1">
+      <c r="D215" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E215" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" ht="15.75" spans="1:5">
+      <c r="A216" s="2">
         <v>213</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B216" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C216" s="2">
+      <c r="C216" s="4">
         <v>53883</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="D216" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E216" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A217" s="1">
+      <c r="E216" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" ht="15.75" spans="1:5">
+      <c r="A217" s="2">
         <v>214</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B217" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C217" s="2">
+      <c r="C217" s="4">
         <v>48159</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="D217" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E217" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A218" s="1">
+      <c r="E217" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" ht="15.75" spans="1:5">
+      <c r="A218" s="2">
         <v>215</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B218" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C218" s="2">
+      <c r="C218" s="4">
         <v>37429</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="D218" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E218" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A219" s="1">
+      <c r="E218" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" ht="15.75" spans="1:5">
+      <c r="A219" s="2">
         <v>216</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B219" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C219" s="2">
+      <c r="C219" s="4">
         <v>36979</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D219" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E219" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A220" s="1">
+      <c r="E219" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" ht="15.75" spans="1:5">
+      <c r="A220" s="2">
         <v>217</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B220" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C220" s="2">
+      <c r="C220" s="4">
         <v>36942</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="D220" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E220" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A221" s="1">
+      <c r="E220" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" ht="15.75" spans="1:5">
+      <c r="A221" s="2">
         <v>218</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B221" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C221" s="2">
+      <c r="C221" s="4">
         <v>36136</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="D221" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E221" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A222" s="1">
+      <c r="E221" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" ht="15.75" spans="1:5">
+      <c r="A222" s="2">
         <v>219</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B222" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C222" s="2">
+      <c r="C222" s="4">
         <v>32499</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="D222" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E222" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A223" s="1">
+      <c r="E222" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" ht="15.75" spans="1:5">
+      <c r="A223" s="2">
         <v>220</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B223" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C223" s="2">
+      <c r="C223" s="4">
         <v>31458</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="D223" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E223" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A224" s="1">
+      <c r="E223" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" ht="15.75" spans="1:5">
+      <c r="A224" s="2">
         <v>220</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B224" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C224" s="2">
+      <c r="C224" s="4">
         <v>30001</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="D224" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E224" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A225" s="1">
+      <c r="E224" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" ht="15.75" spans="1:5">
+      <c r="A225" s="2">
         <v>221</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B225" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C225" s="2">
+      <c r="C225" s="4">
         <v>29537</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D225" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E225" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A226" s="1">
+      <c r="E225" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" ht="15.75" spans="1:5">
+      <c r="A226" s="2">
         <v>222</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B226" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C226" s="2">
+      <c r="C226" s="4">
         <v>28502</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="D226" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E226" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A227" s="1">
+      <c r="E226" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" ht="15.75" spans="1:5">
+      <c r="A227" s="2">
         <v>223</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B227" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C227" s="2">
+      <c r="C227" s="4">
         <v>23296</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="D227" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E227" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A228" s="1">
+      <c r="E227" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" ht="15.75" spans="1:5">
+      <c r="A228" s="2">
         <v>224</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B228" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C228" s="2">
+      <c r="C228" s="4">
         <v>20901</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E228" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A229" s="1">
+      <c r="D228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E228" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" ht="15.75" spans="1:5">
+      <c r="A229" s="2">
         <v>225</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B229" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C229" s="2">
+      <c r="C229" s="4">
         <v>14974</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="D229" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E229" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A230" s="1">
+      <c r="E229" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" ht="15.75" spans="1:5">
+      <c r="A230" s="2">
         <v>226</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B230" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C230" s="2">
+      <c r="C230" s="4">
         <v>13452</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="D230" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E230" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A231" s="1">
+      <c r="E230" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" ht="15.75" spans="1:5">
+      <c r="A231" s="2">
         <v>227</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B231" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C231" s="2">
+      <c r="C231" s="4">
         <v>13135</v>
       </c>
-      <c r="D231" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E231" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A232" s="1">
+      <c r="D231" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E231" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" ht="15.75" spans="1:5">
+      <c r="A232" s="2">
         <v>228</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B232" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C232" s="2">
+      <c r="C232" s="4">
         <v>11323</v>
       </c>
-      <c r="D232" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E232" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A233" s="1">
+      <c r="D232" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E232" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" ht="15.75" spans="1:5">
+      <c r="A233" s="2">
         <v>229</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B233" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C233" s="2">
+      <c r="C233" s="4">
         <v>9945</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="D233" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E233" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A234" s="1">
+      <c r="E233" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" ht="15.75" spans="1:5">
+      <c r="A234" s="2">
         <v>230</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B234" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C234" s="2">
+      <c r="C234" s="4">
         <v>8938</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="D234" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E234" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A235" s="1">
+      <c r="E234" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" ht="15.75" spans="1:5">
+      <c r="A235" s="2">
         <v>231</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B235" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C235" s="2">
+      <c r="C235" s="4">
         <v>6081</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="D235" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E235" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A236" s="1">
+      <c r="E235" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" ht="15.75" spans="1:5">
+      <c r="A236" s="2">
         <v>232</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B236" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C236" s="2">
+      <c r="C236" s="4">
         <v>4922</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="D236" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E236" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A237" s="1">
+      <c r="E236" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" ht="30.75" spans="1:5">
+      <c r="A237" s="2">
         <v>233</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B237" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C237" s="2">
+      <c r="C237" s="4">
         <v>4000</v>
       </c>
-      <c r="D237" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E237" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A238" s="1">
+      <c r="D237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E237" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" ht="15.75" spans="1:5">
+      <c r="A238" s="2">
         <v>234</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B238" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C238" s="2">
+      <c r="C238" s="4">
         <v>2655</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="D238" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E238" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A239" s="1">
+      <c r="E238" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" ht="15.75" spans="1:5">
+      <c r="A239" s="2">
         <v>235</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B239" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C239" s="2">
+      <c r="C239" s="4">
         <v>2563</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="D239" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E239" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A240" s="1">
+      <c r="E239" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" ht="15.75" spans="1:5">
+      <c r="A240" s="2">
         <v>236</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B240" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C240" s="2">
+      <c r="C240" s="4">
         <v>2302</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="D240" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E240" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A241" s="1">
+      <c r="E240" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" ht="15.75" spans="1:5">
+      <c r="A241" s="2">
         <v>237</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B241" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C241" s="2">
+      <c r="C241" s="4">
         <v>2072</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="D241" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E241" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A242" s="1">
+      <c r="E241" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" ht="15.75" spans="1:5">
+      <c r="A242" s="2">
         <v>238</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B242" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C242" s="2">
+      <c r="C242" s="4">
         <v>1613</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="D242" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="E242" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A243" s="1">
+      <c r="E242" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" ht="15.75" spans="1:5">
+      <c r="A243" s="2">
         <v>239</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B243" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C243" s="2">
+      <c r="C243" s="4">
         <v>1411</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="D243" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E243" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A244" s="1">
+      <c r="E243" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" ht="15.75" spans="1:5">
+      <c r="A244" s="2">
         <v>240</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B244" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C244" s="1">
+      <c r="C244" s="2">
         <v>800</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="D244" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E244" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A245" s="1">
+      <c r="E244" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" ht="15.75" spans="1:5">
+      <c r="A245" s="2">
         <v>241</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B245" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C245" s="1">
+      <c r="C245" s="2">
         <v>550</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="D245" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E245" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A246" s="1">
+      <c r="E245" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" ht="15.75" spans="1:5">
+      <c r="A246" s="2">
         <v>242</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B246" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C246" s="1">
+      <c r="C246" s="2">
         <v>56</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="D246" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E246" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="A248" s="5" t="s">
-        <v>337</v>
+      <c r="E246" s="6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6122,9 +6168,7 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A248" r:id="rId1" display="http://www.downloadexcelfiles.com/"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>